--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840487</v>
+        <v>438336.2585840486</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514382</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -917,7 +917,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1233,7 +1233,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1388,10 +1388,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1446,31 +1446,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1619,55 +1619,55 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>241.0142888776591</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2084,64 +2084,64 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>5.645904112486182</v>
       </c>
       <c r="U21" t="n">
-        <v>175.0209980354619</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2360,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.79900896488263</v>
+        <v>101.5851109076146</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,64 +2564,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>33.80371536444981</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>110.6711786524736</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2789,17 +2789,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,25 +2871,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>23.81770009755907</v>
+        <v>72.97781619843659</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>102.3193935893247</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3266,70 +3266,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>71.01467844038824</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="I35" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.18560001662964</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>45.28887413297245</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,28 +3740,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.07035593355321</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3992,55 +3992,55 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>241.0142888776591</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>115.0114486120606</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>54.23582624916496</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4358,16 +4358,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
         <v>262.7299197543128</v>
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="M3" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N3" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4443,16 +4443,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4547,22 +4547,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4650,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4860,25 +4860,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4893,10 +4893,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5160,10 +5160,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="13">
@@ -5182,22 +5182,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C14" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E14" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F14" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5315,13 +5315,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y14" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5549,16 +5549,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
         <v>19.28114311021272</v>
@@ -5695,28 +5695,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,7 +5838,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>683.767348067235</v>
       </c>
       <c r="U21" t="n">
-        <v>411.6643294155641</v>
+        <v>683.767348067235</v>
       </c>
       <c r="V21" t="n">
-        <v>411.6643294155641</v>
+        <v>683.767348067235</v>
       </c>
       <c r="W21" t="n">
-        <v>168.215552771464</v>
+        <v>683.767348067235</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>475.9158478617022</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>475.9158478617022</v>
       </c>
     </row>
     <row r="22">
@@ -5929,19 +5929,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>485.167420504237</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>241.7186438601369</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>241.7186438601369</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>445.8341334011449</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6072,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.38115216564972</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>509.4769954460863</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>131.0702124561456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>526.7184526376595</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="C30" t="n">
-        <v>352.2654233565326</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="D30" t="n">
-        <v>203.3310136952813</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="E30" t="n">
-        <v>44.09355868982578</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="F30" t="n">
-        <v>44.09355868982578</v>
+        <v>345.8502026298103</v>
       </c>
       <c r="G30" t="n">
-        <v>44.09355868982578</v>
+        <v>207.1193772124258</v>
       </c>
       <c r="H30" t="n">
-        <v>44.09355868982578</v>
+        <v>93.7502416200051</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,10 +6546,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>526.7184526376595</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>526.7184526376595</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y30" t="n">
-        <v>526.7184526376595</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6737,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>586.1173586966911</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>586.1173586966911</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>586.1173586966911</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>342.668582052591</v>
       </c>
       <c r="X33" t="n">
-        <v>55.04605772994853</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="34">
@@ -6880,7 +6880,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5185981156682</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7020,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7050,16 +7050,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X36" t="n">
-        <v>485.4562706347935</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y36" t="n">
-        <v>277.6959718698396</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7111,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7205,7 +7205,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
         <v>720.6083788665362</v>
@@ -7214,10 +7214,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>862.8876260635219</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C39" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7257,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
         <v>417.4543050195419</v>
@@ -7278,25 +7278,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G41" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y41" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>726.8416594126254</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C42" t="n">
-        <v>726.8416594126254</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D42" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7500,13 +7500,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="W42" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X42" t="n">
-        <v>756.2056553051034</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y42" t="n">
-        <v>726.8416594126254</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="43">
@@ -7594,10 +7594,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V44" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W44" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X44" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>452.9407326573341</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C45" t="n">
-        <v>278.487703376207</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>278.487703376207</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>278.487703376207</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>278.487703376207</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7728,13 +7728,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
         <v>473.4149733950735</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>660.701031422288</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X45" t="n">
-        <v>660.701031422288</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y45" t="n">
-        <v>452.9407326573341</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="46">
@@ -7828,19 +7828,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
@@ -9018,10 +9018,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,13 +9720,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>292.5201795090609</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,10 +10440,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,10 +10677,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11148,16 +11148,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22598,19 +22598,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22683,13 +22683,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,13 +22787,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,19 +22917,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>109.6162833128638</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,22 +23024,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,22 +23063,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>118.3441281936695</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23264,10 +23264,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23276,10 +23276,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23334,31 +23334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23400,10 +23400,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>150.4326837156464</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23507,16 +23507,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>128.71681180081</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23826,13 +23826,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23914,7 +23914,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23972,16 +23972,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,25 +24011,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24060,7 +24060,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.5188245823354</v>
       </c>
       <c r="U21" t="n">
-        <v>50.92038404551289</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24169,10 +24169,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y23" t="n">
-        <v>166.0248129136286</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>136.7341746849847</v>
+        <v>64.94807274225273</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,10 +24297,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24339,19 +24339,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24406,10 +24406,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>373.0723303772616</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,7 +24491,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24531,10 +24531,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>26.67233851073705</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,22 +24570,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,25 +24759,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.57893275385601</v>
+        <v>16.41881665297849</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,16 +24810,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,10 +24996,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>97.84533510549691</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>170.2754303037659</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25120,10 +25120,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25154,28 +25154,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>344.2880590747468</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25196,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>68.3475836332377</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25290,13 +25290,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.1175644243641</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25351,16 +25351,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,16 +25400,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25445,19 +25445,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,28 +25470,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>127.4196248553433</v>
+        <v>141.1003479476514</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,13 +25518,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,7 +25533,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25591,7 +25591,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,13 +25600,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,19 +25637,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,13 +25685,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>367.9216046054329</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,31 +25704,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>188.7555589881593</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6123398437512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,13 +25834,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>145.2236497783945</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>51.52173503780676</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>83.10769091404568</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,7 +26004,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="D2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="D2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="F2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="G2" t="n">
         <v>91388.36989223282</v>
@@ -26335,25 +26335,25 @@
         <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="N2" t="n">
         <v>91388.36989223285</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="O2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="D4" t="n">
         <v>179.5324977039669</v>
@@ -26525,13 +26525,13 @@
         <v>42927.56863076716</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076718</v>
+        <v>42927.56863076717</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076719</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="G6" t="n">
         <v>76555.16863076718</v>
@@ -26543,25 +26543,25 @@
         <v>76555.16863076716</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166098</v>
+        <v>13495.22603166094</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="L6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="M6" t="n">
         <v>76555.16863076716</v>
       </c>
-      <c r="M6" t="n">
-        <v>76555.16863076718</v>
-      </c>
       <c r="N6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076721</v>
       </c>
       <c r="O6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076719</v>
+        <v>76555.16863076718</v>
       </c>
     </row>
   </sheetData>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,10 +35179,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35261,13 +35261,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
@@ -35738,10 +35738,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35896,7 +35896,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37151,7 +37151,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,10 +37160,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,7 +37388,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,10 +37397,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37868,16 +37868,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O42" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840486</v>
+        <v>440041.0145983153</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>230.2038249569697</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.809496073036132</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1029,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>116.325098768111</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1136,70 +1138,70 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
@@ -1388,10 +1390,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1449,13 +1451,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>37.18582309281558</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1506,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1862,10 +1864,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1980,10 +1982,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2123,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2162,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>5.645904112486182</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>84.56713651463427</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,16 +2320,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.5851109076146</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -2460,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>69.07603338353873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2691,10 +2693,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,31 +2791,31 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>72.97781619843659</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,73 +3031,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>102.3193935893247</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,52 +3280,52 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3396,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3463,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>31.60815104066432</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>10.52620077537998</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3636,16 +3638,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3822,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3873,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>37.18582309281555</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.2853856434421</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>115.0114486120606</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>88.12692860372137</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4358,13 +4360,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
         <v>262.7299197543128</v>
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4443,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>846.5570557448675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>603.1082791007675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4547,7 +4549,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
         <v>962.2293816994886</v>
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>846.5570557448675</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V6" t="n">
-        <v>846.5570557448675</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W6" t="n">
-        <v>603.1082791007675</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4838,16 +4840,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4914,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5026,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
         <v>19.28114311021272</v>
@@ -5127,16 +5129,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5154,16 +5156,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X12" t="n">
-        <v>756.2056553051034</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y12" t="n">
-        <v>548.4453565401495</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="13">
@@ -5182,22 +5184,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5315,13 +5317,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5510,7 +5512,7 @@
         <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5595,40 +5597,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
         <v>19.28114311021272</v>
@@ -5695,16 +5697,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>307.7005108416342</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C21" t="n">
-        <v>307.7005108416342</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D21" t="n">
-        <v>158.7661011803829</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
         <v>20.03527576299844</v>
@@ -5838,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>683.767348067235</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>683.767348067235</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>683.767348067235</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>683.767348067235</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>475.9158478617022</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="Y21" t="n">
-        <v>475.9158478617022</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="22">
@@ -5929,22 +5931,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D23" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>445.8341334011449</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C24" t="n">
-        <v>271.3811041200179</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D24" t="n">
-        <v>271.3811041200179</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E24" t="n">
-        <v>271.3811041200179</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F24" t="n">
         <v>271.3811041200179</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6108,10 +6110,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>548.4453565401495</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6208,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>264.262076138609</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.809046857482</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.809046857482</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.809046857482</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.809046857482</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.809046857482</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.809046857482</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V27" t="n">
-        <v>125.0774898247174</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="28">
@@ -6415,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>492.3847606029253</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>492.3847606029253</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D30" t="n">
-        <v>492.3847606029253</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E30" t="n">
-        <v>492.3847606029253</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F30" t="n">
-        <v>345.8502026298103</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G30" t="n">
-        <v>207.1193772124258</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H30" t="n">
-        <v>93.7502416200051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>492.3847606029253</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>492.3847606029253</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>586.1173586966911</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>586.1173586966911</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>586.1173586966911</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W33" t="n">
-        <v>342.668582052591</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X33" t="n">
-        <v>342.668582052591</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y33" t="n">
-        <v>342.668582052591</v>
+        <v>111.2071172886402</v>
       </c>
     </row>
     <row r="34">
@@ -6883,7 +6885,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>777.5613083818946</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7210,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51.20856840381305</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>29.91366914595008</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>29.91366914595008</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7262,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W39" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X39" t="n">
-        <v>51.20856840381305</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y39" t="n">
-        <v>51.20856840381305</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
         <v>829.5248650203655</v>
@@ -7360,22 +7362,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7448,13 +7450,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y41" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.668582052591</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
         <v>19.28114311021272</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>926.4957180431458</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X42" t="n">
-        <v>718.6442178376129</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>510.883919072659</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7594,25 +7596,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>194.4883050441255</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>310.6614854603483</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7843,7 +7845,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8775,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
@@ -9018,10 +9020,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10197,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10434,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10445,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>233.6791982203443</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11391,10 +11393,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22598,16 +22600,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>97.54843351316518</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22683,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22787,10 +22789,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22917,10 +22919,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>109.6162833128638</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
@@ -22929,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23024,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>142.81920059726</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>118.3441281936695</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23245,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -23264,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
@@ -23276,10 +23278,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23337,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>120.4592573625854</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23394,10 +23396,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23750,10 +23752,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,19 +24050,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>194.5188245823354</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,10 +24113,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,16 +24208,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24251,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64.94807274225273</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24500,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>20.32059946787635</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24579,10 +24581,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24655,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,13 +24697,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24768,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>16.41881665297849</v>
+        <v>53.98936737787663</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,13 +24812,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24917,7 +24919,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>75.52646921322412</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>97.84533510549691</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25123,10 +25125,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>344.2880590747468</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>324.4869424129382</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25284,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>101.1175644243641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25351,10 +25353,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,22 +25396,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>405.0665496686753</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25448,7 +25450,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>141.1003479476514</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>134.5430116180039</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25524,16 +25526,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>367.9216046054329</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25710,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25761,13 +25763,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>188.7555589881593</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170.4484560200385</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>51.52173503780676</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>84.58157038459437</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,13 +25997,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26083,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223277</v>
+      </c>
+      <c r="C2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="C2" t="n">
-        <v>91388.36989223279</v>
       </c>
       <c r="D2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
         <v>91388.36989223279</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
         <v>91388.36989223282</v>
@@ -26335,22 +26337,22 @@
         <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="K2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="L2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="N2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
         <v>91388.36989223282</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
         <v>179.5324977039669</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078056</v>
+        <v>-37841.86290078059</v>
       </c>
       <c r="C6" t="n">
+        <v>42927.56863076718</v>
+      </c>
+      <c r="D6" t="n">
         <v>42927.56863076716</v>
       </c>
-      <c r="D6" t="n">
-        <v>42927.56863076717</v>
-      </c>
       <c r="E6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="F6" t="n">
         <v>76555.16863076715</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="H6" t="n">
         <v>76555.16863076718</v>
@@ -26543,22 +26545,22 @@
         <v>76555.16863076716</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166094</v>
+        <v>13495.22603166095</v>
       </c>
       <c r="K6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="M6" t="n">
         <v>76555.16863076715</v>
       </c>
-      <c r="L6" t="n">
-        <v>76555.16863076719</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76555.16863076716</v>
-      </c>
       <c r="N6" t="n">
-        <v>76555.16863076721</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="P6" t="n">
         <v>76555.16863076718</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35182,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35495,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,7 +35731,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
@@ -35738,10 +35740,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37154,7 +37156,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,7 +37390,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>91.0829537758999</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38111,10 +38113,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440041.0145983153</v>
+        <v>337788.7049113787</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5667942.033436031</v>
+        <v>5667942.03343603</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.809496073036132</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>83.03189205754168</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3676008336951</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>69.03881051849277</v>
       </c>
     </row>
     <row r="10">
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,58 +1381,58 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>129.9586801842565</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>241.0142888776591</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1748,10 +1748,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>96.52468151912586</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>84.56713651463427</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,17 +2560,17 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>89.75619044871837</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>69.07603338353873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>91.00671443664322</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="34">
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,23 +3265,23 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3310,28 +3310,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>10.52620077537998</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3635,19 +3635,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,49 +3666,49 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>88.12692860372137</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4363,19 +4363,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W2" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="X2" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>880.1865574727153</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>645.0344492409727</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W6" t="n">
-        <v>401.5856725968725</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="X6" t="n">
-        <v>193.7341723913397</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
         <v>19.28114311021272</v>
@@ -4892,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4928,7 +4928,7 @@
         <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.47235360622864</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -4995,16 +4995,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F12" t="n">
         <v>19.28114311021272</v>
@@ -5123,19 +5123,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="V12" t="n">
-        <v>846.5570557448675</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="W12" t="n">
-        <v>603.1082791007675</v>
+        <v>314.750110744579</v>
       </c>
       <c r="X12" t="n">
-        <v>395.2567788952347</v>
+        <v>314.750110744579</v>
       </c>
       <c r="Y12" t="n">
-        <v>187.4964801302808</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5235,16 +5235,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D14" t="n">
         <v>749.627473042513</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
         <v>19.28114311021272</v>
@@ -5366,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5469,19 +5469,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
         <v>19.28114311021272</v>
@@ -5709,16 +5709,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5788,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>502.6601697108322</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C21" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>878.6358054958541</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>670.8755067309003</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6022,19 +6022,19 @@
         <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>900.5405560409666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>726.0875267598396</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D24" t="n">
-        <v>577.1531170985884</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6256,19 +6256,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
         <v>262.7299197543128</v>
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>264.262076138609</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C27" t="n">
-        <v>89.809046857482</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D27" t="n">
-        <v>89.809046857482</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E27" t="n">
-        <v>89.809046857482</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F27" t="n">
-        <v>89.809046857482</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>89.809046857482</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>89.809046857482</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>432.4774131586771</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>432.4774131586771</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>432.4774131586771</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>432.4774131586771</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>432.4774131586771</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6411,10 +6411,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6639,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6736,16 +6736,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>318.9674160535941</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>318.9674160535941</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>111.2071172886402</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6888,13 +6888,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="C35" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="D35" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>509.4769954460863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,22 +7040,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>178.8480788072013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>29.91366914595008</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>29.91366914595008</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>353.3011080883284</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>353.3011080883284</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X39" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7493,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>777.5613083818946</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7560,7 +7560,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X44" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,13 +7736,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7769,10 +7769,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7830,22 +7830,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,13 +8780,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>255.5148970497678</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,13 +11150,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22603,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>65.49716000536256</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>47.2544399028796</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>380.1208739992256</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>142.9094900234331</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>138.3273823272245</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>142.81920059726</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>136.6438852588116</v>
       </c>
     </row>
     <row r="10">
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23314,13 +23314,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>70.2060485105651</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>140.9160811946027</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23548,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23588,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>107.544508198328</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,31 +23731,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23861,22 +23861,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24028,13 +24028,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>121.2058486888432</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24262,13 +24262,13 @@
         <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24341,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24423,13 +24423,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24496,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>67.88889000668257</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>20.32059946787635</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24651,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>18.67467251196047</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>53.98936737787663</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>10.49235770196768</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24879,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>224.9573404408503</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.52646921322412</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25055,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="34">
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>284.3390338194077</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>324.4869424129382</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>134.5430116180039</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25523,19 +25523,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25946,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>84.58157038459437</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="D2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="G2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="F2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="O2" t="n">
         <v>91388.36989223282</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078059</v>
+        <v>-50059.87352082103</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076718</v>
+        <v>30709.5580107267</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076716</v>
+        <v>30709.5580107267</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072669</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166095</v>
+        <v>1277.215411620457</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072672</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
     </row>
   </sheetData>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35500,13 +35500,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>113.3808631277495</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37870,13 +37870,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
